--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.3_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3294628226696942</v>
+        <v>0.3756584748436072</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3294628226696942, 'ngram_match_score': 0.12514498175721103, 'weighted_ngram_match_score': 0.14599946432406244, 'syntax_match_score': 0.6336633663366337, 'dataflow_match_score': 0.41304347826086957}</t>
+          <t>{'codebleu': 0.3756584748436072, 'ngram_match_score': 0.12514498175721103, 'weighted_ngram_match_score': 0.14599946432406244, 'syntax_match_score': 0.6336633663366337, 'dataflow_match_score': 0.5978260869565217}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
